--- a/blog_data_combined.xlsx
+++ b/blog_data_combined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashokkumargiri/Desktop/WebscrapeRain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AF95A0-B869-534B-94F1-71D5063BC2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FE1B77-C43B-ED4E-8188-DAD6B7DDF129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="570">
   <si>
     <t>Title</t>
   </si>
@@ -1562,13 +1562,181 @@
   </si>
   <si>
     <t>https://rategaincom.wpenginepowered.com/wp-content/uploads/2021/04/Why-we-data-story.jpg</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1581,6 +1749,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1618,10 +1792,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1927,16 +2104,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D162" sqref="D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="65.5" customWidth="1"/>
-    <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="1" max="1" width="62.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" customWidth="1"/>
+    <col min="4" max="4" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1963,7 +2140,7 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1977,7 +2154,7 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1991,8 +2168,8 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
+      <c r="D4" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2005,8 +2182,8 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
+      <c r="D5" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2019,8 +2196,8 @@
       <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
+      <c r="D6" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2033,8 +2210,8 @@
       <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2047,8 +2224,8 @@
       <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
-        <v>29</v>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2061,8 +2238,8 @@
       <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s">
-        <v>33</v>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2075,8 +2252,8 @@
       <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="s">
-        <v>36</v>
+      <c r="D10" s="2" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2089,8 +2266,8 @@
       <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" t="s">
-        <v>33</v>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2103,8 +2280,8 @@
       <c r="C12" t="s">
         <v>42</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2117,8 +2294,8 @@
       <c r="C13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
+      <c r="D13" s="2" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2131,8 +2308,8 @@
       <c r="C14" t="s">
         <v>47</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
+      <c r="D14" s="2" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2145,8 +2322,8 @@
       <c r="C15" t="s">
         <v>50</v>
       </c>
-      <c r="D15" t="s">
-        <v>51</v>
+      <c r="D15" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2159,8 +2336,8 @@
       <c r="C16" t="s">
         <v>54</v>
       </c>
-      <c r="D16" t="s">
-        <v>51</v>
+      <c r="D16" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2173,8 +2350,8 @@
       <c r="C17" t="s">
         <v>57</v>
       </c>
-      <c r="D17" t="s">
-        <v>51</v>
+      <c r="D17" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2187,8 +2364,8 @@
       <c r="C18" t="s">
         <v>60</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
+      <c r="D18" s="2" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2201,8 +2378,8 @@
       <c r="C19" t="s">
         <v>63</v>
       </c>
-      <c r="D19" t="s">
-        <v>51</v>
+      <c r="D19" s="2" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2215,8 +2392,8 @@
       <c r="C20" t="s">
         <v>66</v>
       </c>
-      <c r="D20" t="s">
-        <v>67</v>
+      <c r="D20" s="2" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2229,8 +2406,8 @@
       <c r="C21" t="s">
         <v>70</v>
       </c>
-      <c r="D21" t="s">
-        <v>71</v>
+      <c r="D21" s="2" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2243,8 +2420,8 @@
       <c r="C22" t="s">
         <v>74</v>
       </c>
-      <c r="D22" t="s">
-        <v>51</v>
+      <c r="D22" s="2" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -2257,8 +2434,8 @@
       <c r="C23" t="s">
         <v>76</v>
       </c>
-      <c r="D23" t="s">
-        <v>71</v>
+      <c r="D23" s="2" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -2271,8 +2448,8 @@
       <c r="C24" t="s">
         <v>79</v>
       </c>
-      <c r="D24" t="s">
-        <v>51</v>
+      <c r="D24" s="2" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -2285,8 +2462,8 @@
       <c r="C25" t="s">
         <v>82</v>
       </c>
-      <c r="D25" t="s">
-        <v>67</v>
+      <c r="D25" s="2" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -2299,8 +2476,8 @@
       <c r="C26" t="s">
         <v>85</v>
       </c>
-      <c r="D26" t="s">
-        <v>7</v>
+      <c r="D26" s="2" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2313,8 +2490,8 @@
       <c r="C27" t="s">
         <v>88</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
+      <c r="D27" s="2" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -2327,8 +2504,8 @@
       <c r="C28" t="s">
         <v>90</v>
       </c>
-      <c r="D28" t="s">
-        <v>51</v>
+      <c r="D28" s="2" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -2341,8 +2518,8 @@
       <c r="C29" t="s">
         <v>92</v>
       </c>
-      <c r="D29" t="s">
-        <v>51</v>
+      <c r="D29" s="2" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -2355,8 +2532,8 @@
       <c r="C30" t="s">
         <v>94</v>
       </c>
-      <c r="D30" t="s">
-        <v>33</v>
+      <c r="D30" s="2" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -2369,8 +2546,8 @@
       <c r="C31" t="s">
         <v>97</v>
       </c>
-      <c r="D31" t="s">
-        <v>36</v>
+      <c r="D31" s="2" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -2383,8 +2560,8 @@
       <c r="C32" t="s">
         <v>100</v>
       </c>
-      <c r="D32" t="s">
-        <v>67</v>
+      <c r="D32" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2397,8 +2574,8 @@
       <c r="C33" t="s">
         <v>103</v>
       </c>
-      <c r="D33" t="s">
-        <v>67</v>
+      <c r="D33" s="2" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2411,8 +2588,8 @@
       <c r="C34" t="s">
         <v>106</v>
       </c>
-      <c r="D34" t="s">
-        <v>67</v>
+      <c r="D34" s="2" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2425,8 +2602,8 @@
       <c r="C35" t="s">
         <v>109</v>
       </c>
-      <c r="D35" t="s">
-        <v>67</v>
+      <c r="D35" s="2" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -2439,8 +2616,8 @@
       <c r="C36" t="s">
         <v>111</v>
       </c>
-      <c r="D36" t="s">
-        <v>67</v>
+      <c r="D36" s="2" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -2453,8 +2630,8 @@
       <c r="C37" t="s">
         <v>114</v>
       </c>
-      <c r="D37" t="s">
-        <v>67</v>
+      <c r="D37" s="2" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -2467,8 +2644,8 @@
       <c r="C38" t="s">
         <v>117</v>
       </c>
-      <c r="D38" t="s">
-        <v>51</v>
+      <c r="D38" s="2" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -2481,8 +2658,8 @@
       <c r="C39" t="s">
         <v>120</v>
       </c>
-      <c r="D39" t="s">
-        <v>11</v>
+      <c r="D39" s="2" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -2495,8 +2672,8 @@
       <c r="C40" t="s">
         <v>123</v>
       </c>
-      <c r="D40" t="s">
-        <v>11</v>
+      <c r="D40" s="2" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2509,8 +2686,8 @@
       <c r="C41" t="s">
         <v>125</v>
       </c>
-      <c r="D41" t="s">
-        <v>71</v>
+      <c r="D41" s="2" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -2523,8 +2700,8 @@
       <c r="C42" t="s">
         <v>128</v>
       </c>
-      <c r="D42" t="s">
-        <v>67</v>
+      <c r="D42" s="2" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -2537,8 +2714,8 @@
       <c r="C43" t="s">
         <v>131</v>
       </c>
-      <c r="D43" t="s">
-        <v>67</v>
+      <c r="D43" s="2" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -2551,8 +2728,8 @@
       <c r="C44" t="s">
         <v>133</v>
       </c>
-      <c r="D44" t="s">
-        <v>67</v>
+      <c r="D44" s="2" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -2565,8 +2742,8 @@
       <c r="C45" t="s">
         <v>135</v>
       </c>
-      <c r="D45" t="s">
-        <v>51</v>
+      <c r="D45" s="2" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -2579,8 +2756,8 @@
       <c r="C46" t="s">
         <v>138</v>
       </c>
-      <c r="D46" t="s">
-        <v>67</v>
+      <c r="D46" s="2" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2593,8 +2770,8 @@
       <c r="C47" t="s">
         <v>140</v>
       </c>
-      <c r="D47" t="s">
-        <v>67</v>
+      <c r="D47" s="2" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -2607,8 +2784,8 @@
       <c r="C48" t="s">
         <v>143</v>
       </c>
-      <c r="D48" t="s">
-        <v>7</v>
+      <c r="D48" s="2" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -2621,8 +2798,8 @@
       <c r="C49" t="s">
         <v>146</v>
       </c>
-      <c r="D49" t="s">
-        <v>7</v>
+      <c r="D49" s="2" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -2635,8 +2812,8 @@
       <c r="C50" t="s">
         <v>149</v>
       </c>
-      <c r="D50" t="s">
-        <v>67</v>
+      <c r="D50" s="2" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -2649,8 +2826,8 @@
       <c r="C51" t="s">
         <v>151</v>
       </c>
-      <c r="D51" t="s">
-        <v>67</v>
+      <c r="D51" s="2" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2663,8 +2840,8 @@
       <c r="C52" t="s">
         <v>153</v>
       </c>
-      <c r="D52" t="s">
-        <v>67</v>
+      <c r="D52" s="2" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -2677,8 +2854,8 @@
       <c r="C53" t="s">
         <v>156</v>
       </c>
-      <c r="D53" t="s">
-        <v>67</v>
+      <c r="D53" s="2" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2691,8 +2868,8 @@
       <c r="C54" t="s">
         <v>158</v>
       </c>
-      <c r="D54" t="s">
-        <v>51</v>
+      <c r="D54" s="2" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -2705,8 +2882,8 @@
       <c r="C55" t="s">
         <v>161</v>
       </c>
-      <c r="D55" t="s">
-        <v>67</v>
+      <c r="D55" s="2" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2719,8 +2896,8 @@
       <c r="C56" t="s">
         <v>164</v>
       </c>
-      <c r="D56" t="s">
-        <v>67</v>
+      <c r="D56" s="2" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2733,8 +2910,8 @@
       <c r="C57" t="s">
         <v>167</v>
       </c>
-      <c r="D57" t="s">
-        <v>7</v>
+      <c r="D57" s="2" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2747,8 +2924,8 @@
       <c r="C58" t="s">
         <v>170</v>
       </c>
-      <c r="D58" t="s">
-        <v>51</v>
+      <c r="D58" s="2" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2761,8 +2938,8 @@
       <c r="C59" t="s">
         <v>173</v>
       </c>
-      <c r="D59" t="s">
-        <v>71</v>
+      <c r="D59" s="2" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2775,8 +2952,8 @@
       <c r="C60" t="s">
         <v>176</v>
       </c>
-      <c r="D60" t="s">
-        <v>67</v>
+      <c r="D60" s="2" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2789,8 +2966,8 @@
       <c r="C61" t="s">
         <v>179</v>
       </c>
-      <c r="D61" t="s">
-        <v>67</v>
+      <c r="D61" s="2" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2803,8 +2980,8 @@
       <c r="C62" t="s">
         <v>182</v>
       </c>
-      <c r="D62" t="s">
-        <v>67</v>
+      <c r="D62" s="2" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2817,8 +2994,8 @@
       <c r="C63" t="s">
         <v>185</v>
       </c>
-      <c r="D63" t="s">
-        <v>7</v>
+      <c r="D63" s="2" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2831,8 +3008,8 @@
       <c r="C64" t="s">
         <v>188</v>
       </c>
-      <c r="D64" t="s">
-        <v>51</v>
+      <c r="D64" s="2" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2845,8 +3022,8 @@
       <c r="C65" t="s">
         <v>191</v>
       </c>
-      <c r="D65" t="s">
-        <v>51</v>
+      <c r="D65" s="2" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2859,8 +3036,8 @@
       <c r="C66" t="s">
         <v>194</v>
       </c>
-      <c r="D66" t="s">
-        <v>51</v>
+      <c r="D66" s="2" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2873,8 +3050,8 @@
       <c r="C67" t="s">
         <v>197</v>
       </c>
-      <c r="D67" t="s">
-        <v>67</v>
+      <c r="D67" s="2" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2887,8 +3064,8 @@
       <c r="C68" t="s">
         <v>200</v>
       </c>
-      <c r="D68" t="s">
-        <v>51</v>
+      <c r="D68" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2901,8 +3078,8 @@
       <c r="C69" t="s">
         <v>203</v>
       </c>
-      <c r="D69" t="s">
-        <v>51</v>
+      <c r="D69" s="2" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2915,8 +3092,8 @@
       <c r="C70" t="s">
         <v>205</v>
       </c>
-      <c r="D70" t="s">
-        <v>51</v>
+      <c r="D70" s="2" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -4474,6 +4651,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>